--- a/pred_ohlcv/54_21/2020-01-19 DASH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 DASH ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-543.3556786999999</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-537.1048786999999</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-527.7318786999998</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-536.1422786999998</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-519.9774786999998</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-518.1095786999998</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-510.6062786999998</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-511.4061786999998</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-511.4061786999998</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-511.4061786999998</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-511.4061786999998</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-511.4061786999998</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-511.4061786999998</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-511.6140786999998</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-545.3797786999997</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-543.5118786999998</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-543.5118786999998</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-545.3906786999997</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-602.5971786999997</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-632.5315786999997</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-630.6631786999998</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-625.7687786999998</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-703.4211786999997</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-701.0295786999997</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-702.0195786999997</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-702.4384786999997</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-702.4384786999997</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-804.3292826399994</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-1680.91829555</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-1689.47355738</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-1717.00235738</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-1719.23807166</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-1736.341309389999</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-1736.515009389999</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-1736.255009389999</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-1728.9833425</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-1729.0359425</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-1729.0359425</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-1713.5224425</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-1613.0448425</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>-1855.527286589999</v>
       </c>
       <c r="H542">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>-1749.287886589999</v>
       </c>
       <c r="H543">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>-1724.360686589998</v>
       </c>
       <c r="H550">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>-1724.360686589998</v>
       </c>
       <c r="H551">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>-1742.141186589998</v>
       </c>
       <c r="H552">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>-1742.141186589998</v>
       </c>
       <c r="H553">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>-1726.775186589998</v>
       </c>
       <c r="H556">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>-1709.675186589998</v>
       </c>
       <c r="H557">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>-1709.375186589999</v>
       </c>
       <c r="H558">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>-1709.355186589999</v>
       </c>
       <c r="H559">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="560" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-19 DASH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 DASH ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-543.3556786999999</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-537.1048786999999</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-527.7318786999998</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-536.1422786999998</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-519.9774786999998</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-518.1095786999998</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-510.6062786999998</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-511.4061786999998</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-511.4061786999998</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-511.4061786999998</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-511.4061786999998</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-511.4061786999998</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-511.4061786999998</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-511.6140786999998</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-545.3797786999997</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-543.5118786999998</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-543.5118786999998</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-545.3906786999997</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-602.5971786999997</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-632.5315786999997</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-630.6631786999998</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-703.4211786999997</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-701.0295786999997</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-702.0195786999997</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-702.4384786999997</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-702.4384786999997</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-704.1057786999996</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-723.6449786999997</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-723.6449786999997</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-763.9284786999997</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-804.3292826399994</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-1680.91829555</v>
       </c>
       <c r="H299">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-1689.47355738</v>
       </c>
       <c r="H300">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-1717.00235738</v>
       </c>
       <c r="H301">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-1719.23807166</v>
       </c>
       <c r="H302">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-1727.4170043</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-1718.71230939</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-1718.71230939</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-1736.341309389999</v>
       </c>
       <c r="H329">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>-1855.527286589999</v>
       </c>
       <c r="H542">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>-1749.287886589999</v>
       </c>
       <c r="H543">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>-1724.360686589998</v>
       </c>
       <c r="H550">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>-1724.360686589998</v>
       </c>
       <c r="H551">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>-1742.141186589998</v>
       </c>
       <c r="H552">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>-1742.141186589998</v>
       </c>
       <c r="H553">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>-1726.775186589998</v>
       </c>
       <c r="H556">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>-1709.675186589998</v>
       </c>
       <c r="H557">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>-1709.375186589999</v>
       </c>
       <c r="H558">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>-1709.355186589999</v>
       </c>
       <c r="H559">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560" spans="1:8">
